--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Epha5</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,51 +537,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H2">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I2">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J2">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01424366666666667</v>
+        <v>0.02440666666666666</v>
       </c>
       <c r="N2">
-        <v>0.042731</v>
+        <v>0.07321999999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9884709884709885</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9884709884709886</v>
       </c>
       <c r="Q2">
-        <v>0.006015423289777777</v>
+        <v>0.00787782929111111</v>
       </c>
       <c r="R2">
-        <v>0.05413880960799999</v>
+        <v>0.07090046361999999</v>
       </c>
       <c r="S2">
-        <v>0.1676547342089268</v>
+        <v>0.1399768287962721</v>
       </c>
       <c r="T2">
-        <v>0.1676547342089269</v>
+        <v>0.1399768287962721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.3227736666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.968321</v>
+      </c>
+      <c r="I3">
+        <v>0.1416094457286952</v>
+      </c>
+      <c r="J3">
+        <v>0.1416094457286952</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1.874986333333333</v>
-      </c>
-      <c r="H3">
-        <v>5.624959</v>
-      </c>
-      <c r="I3">
-        <v>0.7443368783435028</v>
-      </c>
-      <c r="J3">
-        <v>0.7443368783435029</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01424366666666667</v>
+        <v>0.0002846666666666667</v>
       </c>
       <c r="N3">
-        <v>0.042731</v>
+        <v>0.000854</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="Q3">
-        <v>0.02670668033655556</v>
+        <v>9.188290377777778E-05</v>
       </c>
       <c r="R3">
-        <v>0.240360123029</v>
+        <v>0.0008269461340000001</v>
       </c>
       <c r="S3">
-        <v>0.7443368783435028</v>
+        <v>0.001632616932423059</v>
       </c>
       <c r="T3">
-        <v>0.7443368783435029</v>
+        <v>0.001632616932423059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -658,46 +661,232 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2216933333333333</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H4">
-        <v>0.66508</v>
+        <v>5.624959</v>
       </c>
       <c r="I4">
-        <v>0.08800838744757017</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J4">
-        <v>0.08800838744757018</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.02440666666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.07321999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.9884709884709885</v>
+      </c>
+      <c r="P4">
+        <v>0.9884709884709886</v>
+      </c>
+      <c r="Q4">
+        <v>0.04576216644222222</v>
+      </c>
+      <c r="R4">
+        <v>0.41185949798</v>
+      </c>
+      <c r="S4">
+        <v>0.8131228414224725</v>
+      </c>
+      <c r="T4">
+        <v>0.8131228414224727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H5">
+        <v>5.624959</v>
+      </c>
+      <c r="I5">
+        <v>0.8226066833587575</v>
+      </c>
+      <c r="J5">
+        <v>0.8226066833587576</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.000854</v>
+      </c>
+      <c r="O5">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P5">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q5">
+        <v>0.0005337461095555556</v>
+      </c>
+      <c r="R5">
+        <v>0.004803714986000001</v>
+      </c>
+      <c r="S5">
+        <v>0.009483841936285054</v>
+      </c>
+      <c r="T5">
+        <v>0.009483841936285054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="F6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M4">
-        <v>0.01424366666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.042731</v>
-      </c>
-      <c r="O4">
+      <c r="G6">
+        <v>0.081563</v>
+      </c>
+      <c r="H6">
+        <v>0.244689</v>
+      </c>
+      <c r="I6">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J6">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="M6">
+        <v>0.02440666666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.07321999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.9884709884709885</v>
+      </c>
+      <c r="P6">
+        <v>0.9884709884709886</v>
+      </c>
+      <c r="Q6">
+        <v>0.001990680953333333</v>
+      </c>
+      <c r="R6">
+        <v>0.01791612858</v>
+      </c>
+      <c r="S6">
+        <v>0.03537131825224386</v>
+      </c>
+      <c r="T6">
+        <v>0.03537131825224386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.081563</v>
+      </c>
+      <c r="H7">
+        <v>0.244689</v>
+      </c>
+      <c r="I7">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J7">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0.003157725942222222</v>
-      </c>
-      <c r="R4">
-        <v>0.02841953348</v>
-      </c>
-      <c r="S4">
-        <v>0.08800838744757017</v>
-      </c>
-      <c r="T4">
-        <v>0.08800838744757018</v>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.000854</v>
+      </c>
+      <c r="O7">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P7">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q7">
+        <v>2.321826733333333E-05</v>
+      </c>
+      <c r="R7">
+        <v>0.000208964406</v>
+      </c>
+      <c r="S7">
+        <v>0.0004125526603034179</v>
+      </c>
+      <c r="T7">
+        <v>0.0004125526603034179</v>
       </c>
     </row>
   </sheetData>
